--- a/Checklist-withFormula.xlsx
+++ b/Checklist-withFormula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAT\Vscode_Product\Group8_Project_DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FAD4D-3CB5-499D-BDAE-BF16EFC0C814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E295188D-C5A1-4637-8F35-E42D82DC80F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Grader" sheetId="5" r:id="rId2"/>
     <sheet name="Rubric" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,121 +40,121 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
   <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Command line arguments</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
     <t>Run time</t>
   </si>
   <si>
+    <t>Comparison(s)</t>
+  </si>
+  <si>
+    <t>Algorithm presentation</t>
+  </si>
+  <si>
+    <t>Command 1</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Command 2</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Command 3</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Command 4</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Command 5</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Information page</t>
+  </si>
+  <si>
+    <t>Shaker Sort</t>
+  </si>
+  <si>
+    <t>Introduction page</t>
+  </si>
+  <si>
+    <t>Shell Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File organization  </t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Programming note</t>
+  </si>
+  <si>
+    <t>Flash Sort</t>
+  </si>
+  <si>
+    <t>References and citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental  </t>
+  </si>
+  <si>
+    <t>Experimental run (Table fill)</t>
+  </si>
+  <si>
+    <t>Chart draw and comment</t>
+  </si>
+  <si>
+    <t>Randomized data</t>
+  </si>
+  <si>
+    <t>Nearly Sorted data</t>
+  </si>
+  <si>
+    <t>Sorted data</t>
+  </si>
+  <si>
+    <t>Reversed data</t>
+  </si>
+  <si>
     <t>Comparision</t>
   </si>
   <si>
-    <t>Selection Sort</t>
-  </si>
-  <si>
-    <t>Insertion Sort</t>
-  </si>
-  <si>
-    <t>Bubble Sort</t>
-  </si>
-  <si>
-    <t>Heap Sort</t>
-  </si>
-  <si>
-    <t>Merge Sort</t>
-  </si>
-  <si>
-    <t>Quick Sort</t>
-  </si>
-  <si>
-    <t>Radix Sort</t>
-  </si>
-  <si>
-    <t>Shaker Sort</t>
-  </si>
-  <si>
-    <t>Shell Sort</t>
-  </si>
-  <si>
-    <t>Counting Sort</t>
-  </si>
-  <si>
-    <t>Flash Sort</t>
-  </si>
-  <si>
-    <t>Algorithm presentation</t>
-  </si>
-  <si>
-    <t>Information page</t>
-  </si>
-  <si>
-    <t>Introduction page</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experimental  </t>
-  </si>
-  <si>
-    <t>Experimental run (Table fill)</t>
-  </si>
-  <si>
-    <t>Chart draw and comment</t>
-  </si>
-  <si>
-    <t>Nearly Sorted data</t>
-  </si>
-  <si>
-    <t>Randomized data</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Sorted data</t>
-  </si>
-  <si>
-    <t>Reversed data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File organization  </t>
-  </si>
-  <si>
-    <t>Programming note</t>
-  </si>
-  <si>
-    <t>References and citations</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
-  </si>
-  <si>
-    <t>Command line arguments</t>
-  </si>
-  <si>
-    <t>Command 1</t>
-  </si>
-  <si>
-    <t>Command 2</t>
-  </si>
-  <si>
-    <t>Command 3</t>
-  </si>
-  <si>
-    <t>Command 4</t>
-  </si>
-  <si>
-    <t>Command 5</t>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Fill in your student IDs to the cells aside</t>
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Fill in your student IDs to the cells aside</t>
-  </si>
-  <si>
-    <t>Comparison(s)</t>
   </si>
 </sst>
 </file>
@@ -747,26 +749,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D07BC3-C8CB-4F03-A421-F70981A8BB46}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -774,27 +776,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>22127154</v>
@@ -802,7 +804,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="1">
@@ -812,19 +814,19 @@
         <v>22127154</v>
       </c>
       <c r="E3" s="1">
-        <v>22127154</v>
+        <v>22127250</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
-        <v>22127154</v>
+        <v>22127320</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1">
@@ -834,11 +836,11 @@
         <v>22127154</v>
       </c>
       <c r="E4" s="1">
-        <v>22127154</v>
+        <v>22127250</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
         <v>22127154</v>
@@ -846,7 +848,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1">
@@ -860,7 +862,7 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>22127154</v>
@@ -868,7 +870,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="1">
@@ -882,15 +884,15 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
-        <v>22157154</v>
+        <v>22127486</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="1">
@@ -908,7 +910,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="1">
@@ -922,13 +924,13 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1">
@@ -942,15 +944,15 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
-        <v>4321</v>
+        <v>22127486</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="1">
@@ -964,15 +966,15 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
-        <v>4321</v>
+        <v>22127154</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="1">
@@ -986,15 +988,15 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
-        <v>4321</v>
+        <v>22127250</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="1">
@@ -1008,15 +1010,15 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
-        <v>4321</v>
+        <v>22127486</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="1">
@@ -1033,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="1">
-        <v>4321</v>
+        <v>22127320</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1048,7 +1050,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1060,23 +1062,23 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D17" s="1">
         <v>22127320</v>
@@ -1087,13 +1089,13 @@
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D18" s="1">
-        <v>8765</v>
+        <v>22127486</v>
       </c>
       <c r="E18" s="8"/>
       <c r="J18"/>
@@ -1101,10 +1103,10 @@
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D19" s="1">
         <v>22127320</v>
@@ -1115,26 +1117,26 @@
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D20" s="1">
-        <v>8765</v>
+        <v>22127250</v>
       </c>
       <c r="E20" s="8"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D21" s="1">
         <v>22127320</v>
@@ -1145,13 +1147,13 @@
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D22" s="1">
-        <v>8765</v>
+        <v>22127486</v>
       </c>
       <c r="E22" s="8"/>
       <c r="J22"/>
@@ -1159,10 +1161,10 @@
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D23" s="1">
         <v>22127320</v>
@@ -1173,13 +1175,13 @@
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>8765</v>
+        <v>22127154</v>
       </c>
       <c r="D24" s="1">
-        <v>8765</v>
+        <v>22127250</v>
       </c>
       <c r="E24" s="8"/>
       <c r="J24"/>
@@ -1258,23 +1260,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F7E3AF-06FB-492B-ABC3-48C15B5C1CC2}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1282,27 +1284,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>
@@ -1310,7 +1312,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="1">
@@ -1324,7 +1326,7 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>15</v>
@@ -1332,7 +1334,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1">
@@ -1346,7 +1348,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
         <v>15</v>
@@ -1354,7 +1356,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1">
@@ -1368,7 +1370,7 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>15</v>
@@ -1376,7 +1378,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="1">
@@ -1390,7 +1392,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
         <v>15</v>
@@ -1398,7 +1400,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="1">
@@ -1416,7 +1418,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="1">
@@ -1430,13 +1432,13 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1">
@@ -1450,7 +1452,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -1458,7 +1460,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="1">
@@ -1472,7 +1474,7 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -1480,7 +1482,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="1">
@@ -1494,7 +1496,7 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1502,7 +1504,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="1">
@@ -1516,7 +1518,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1524,7 +1526,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="1">
@@ -1556,7 +1558,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1566,18 +1568,18 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -1589,7 +1591,7 @@
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -1601,7 +1603,7 @@
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -1613,7 +1615,7 @@
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1624,10 +1626,10 @@
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -1639,7 +1641,7 @@
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -1651,7 +1653,7 @@
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -1663,7 +1665,7 @@
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1677,7 +1679,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1687,7 +1689,7 @@
       </c>
       <c r="B27" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A27)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A27)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A27)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A27)</f>
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1697,7 +1699,7 @@
       </c>
       <c r="B28" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A28)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A28)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A28)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A28)</f>
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1707,7 +1709,7 @@
       </c>
       <c r="B29" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A29)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A29)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A29)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A29)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1717,7 +1719,7 @@
       </c>
       <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A30)</f>
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1850,23 +1852,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB2285-79C2-4582-B649-19B1BF8CE13D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1874,27 +1876,27 @@
       <c r="E1" s="16"/>
       <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H2" s="13">
         <v>15</v>
@@ -1902,7 +1904,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="1">
@@ -1916,7 +1918,7 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H3" s="13">
         <v>15</v>
@@ -1924,7 +1926,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="1">
@@ -1938,7 +1940,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H4" s="13">
         <v>15</v>
@@ -1946,7 +1948,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1">
@@ -1960,7 +1962,7 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13">
         <v>15</v>
@@ -1968,7 +1970,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="1">
@@ -1982,7 +1984,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H6" s="13">
         <v>15</v>
@@ -1990,7 +1992,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="1">
@@ -2008,7 +2010,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="1">
@@ -2022,13 +2024,13 @@
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1">
@@ -2042,7 +2044,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -2050,7 +2052,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="1">
@@ -2064,7 +2066,7 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -2072,7 +2074,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="1">
@@ -2086,7 +2088,7 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -2094,7 +2096,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="1">
@@ -2108,7 +2110,7 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -2116,7 +2118,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="1">
@@ -2148,7 +2150,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2162,10 +2164,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2173,10 +2175,10 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -2191,7 +2193,7 @@
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -2206,7 +2208,7 @@
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -2221,7 +2223,7 @@
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -2235,10 +2237,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -2253,7 +2255,7 @@
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -2268,7 +2270,7 @@
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -2283,7 +2285,7 @@
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
